--- a/Libraries/Vehicle/Linkage/DW_Pullrod/sm_car_data_Linkage_DW_Pullrod_noSteer.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_Pullrod/sm_car_data_Linkage_DW_Pullrod_noSteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_PushUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_Pullrod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D5175-03FC-4416-B140-47588054CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA6F5A-E203-4164-8462-BB093B16A67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="390" yWindow="1470" windowWidth="25575" windowHeight="13875" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWpullNoSteer_FSAE_Achilles_r" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -129,9 +129,6 @@
     <t>sTop</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -162,15 +156,6 @@
     <t>Lower Arm to Subframe</t>
   </si>
   <si>
-    <t>Hardpoints mirrored front/rear about reference</t>
-  </si>
-  <si>
-    <t>Useful for rear axle</t>
-  </si>
-  <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
     <t>sUpperArm</t>
   </si>
   <si>
@@ -193,6 +178,15 @@
   </si>
   <si>
     <t>Pullrod</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
   </si>
   <si>
     <t>Must be same as AntiRollBar.sSuspension</t>
@@ -206,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +216,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -277,7 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -333,21 +321,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -373,6 +366,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -687,10 +681,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,12 +695,11 @@
     <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -726,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -740,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -749,13 +742,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -766,15 +756,10 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -795,20 +780,8 @@
         <v>0.12457</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="L5" s="23">
-        <f>-F6</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="M5" s="23">
-        <f>G6</f>
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="N5" s="23">
-        <f>H6</f>
-        <v>0.10507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
@@ -826,20 +799,8 @@
       <c r="H6" s="10">
         <v>0.10507</v>
       </c>
-      <c r="L6" s="23">
-        <f>-F5</f>
-        <v>-0.23712</v>
-      </c>
-      <c r="M6" s="23">
-        <f>G5</f>
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="N6" s="23">
-        <f>H5</f>
-        <v>0.12457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>13</v>
@@ -857,21 +818,9 @@
       <c r="H7" s="10">
         <v>0.13123000000000001</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="L7" s="23">
-        <f>-F7</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="M7" s="23">
-        <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.52549999999999997</v>
-      </c>
-      <c r="N7" s="23">
-        <f t="shared" si="0"/>
-        <v>0.13123000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
@@ -880,16 +829,13 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="26">
+      <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -910,20 +856,8 @@
         <v>0.25557000000000002</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="L9" s="23">
-        <f>-F10</f>
-        <v>-3.4209999999999997E-2</v>
-      </c>
-      <c r="M9" s="23">
-        <f>G10</f>
-        <v>0.182</v>
-      </c>
-      <c r="N9" s="23">
-        <f>H10</f>
-        <v>0.22907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>12</v>
@@ -941,20 +875,8 @@
       <c r="H10" s="10">
         <v>0.22907</v>
       </c>
-      <c r="L10" s="23">
-        <f>-F9</f>
-        <v>-0.23599000000000001</v>
-      </c>
-      <c r="M10" s="23">
-        <f>G9</f>
-        <v>0.22470000000000001</v>
-      </c>
-      <c r="N10" s="23">
-        <f>H9</f>
-        <v>0.25557000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>13</v>
@@ -972,20 +894,8 @@
       <c r="H11" s="10">
         <v>0.32773000000000002</v>
       </c>
-      <c r="L11" s="23">
-        <f>-F11</f>
-        <v>-3.5490000000000001E-2</v>
-      </c>
-      <c r="M11" s="23">
-        <f t="shared" ref="M11:N11" si="1">G11</f>
-        <v>0.49149999999999999</v>
-      </c>
-      <c r="N11" s="23">
-        <f t="shared" si="1"/>
-        <v>0.32773000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -996,11 +906,11 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="26">
+      <c r="H12" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1020,20 +930,8 @@
       <c r="H13" s="10">
         <v>0.23322999999999999</v>
       </c>
-      <c r="L13" s="23">
-        <f>-F13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
-        <f t="shared" ref="M13:N14" si="2">G13</f>
-        <v>0.53918999999999995</v>
-      </c>
-      <c r="N13" s="23">
-        <f t="shared" si="2"/>
-        <v>0.23322999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -1045,26 +943,14 @@
       <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>0.57499999999999996</v>
       </c>
       <c r="H14" s="10">
         <v>0.23322999999999999</v>
       </c>
-      <c r="L14" s="23">
-        <f>-F14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="23">
-        <f t="shared" si="2"/>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" si="2"/>
-        <v>0.23322999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -1079,7 +965,7 @@
         <v>1.0491900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1094,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>21</v>
@@ -1109,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>22</v>
@@ -1127,7 +1013,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>24</v>
@@ -1145,7 +1031,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>26</v>
@@ -1160,32 +1046,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="23">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="23">
         <v>0.24518000000000001</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="23">
         <v>0.24814</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>13</v>
@@ -1203,11 +1091,8 @@
       <c r="H22" s="10">
         <v>0.32373000000000002</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>11</v>
@@ -1218,14 +1103,11 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="26">
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -1236,66 +1118,51 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="21">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="20">
         <v>0.22999</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>0.22700000000000001</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>0.15606999999999999</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="24">
-        <f>-F24</f>
-        <v>-0.22999</v>
-      </c>
-      <c r="M24" s="24">
-        <f>G24</f>
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="N24" s="24">
-        <f>H24</f>
-        <v>0.15606999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="21">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="20">
         <v>5.9749999999999998E-2</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>0.26723000000000002</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>0.16078999999999999</v>
       </c>
-      <c r="L25" s="24">
-        <f>-F25</f>
-        <v>-5.9749999999999998E-2</v>
-      </c>
-      <c r="M25" s="24">
-        <f>G25</f>
-        <v>0.26723000000000002</v>
-      </c>
-      <c r="N25" s="24">
-        <f>H25</f>
-        <v>0.16078999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -1307,10 +1174,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -1322,44 +1189,53 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="27">
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="22">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="27">
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="22">
         <v>-4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
@@ -1370,12 +1246,12 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -1386,15 +1262,15 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" t="s">
@@ -1410,10 +1286,10 @@
         <v>0.30620000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" t="s">
@@ -1429,7 +1305,7 @@
         <v>0.10389</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -1440,16 +1316,16 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="26">
+      <c r="H34" s="10">
         <v>5.8304799999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" t="s">
@@ -1465,29 +1341,32 @@
         <v>0.10306999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="10">
+        <v>51</v>
+      </c>
+      <c r="F36" s="24">
         <v>5.8860000000000003E-2</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="24">
         <v>0.2467</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="24">
         <v>0.12791</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
         <v>11</v>
@@ -1498,23 +1377,28 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="26">
+      <c r="H37" s="10">
         <v>0.22806699999999999</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
